--- a/Data Survey.xlsx
+++ b/Data Survey.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Semester 3\Analisa Statistika Terapan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Semester 3\Analisa Statistika Terapan\Project-Survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04175FAD-C7D6-4FA6-A935-F876E2135BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66FF6AE-3E6C-4F70-BC3B-30C528808D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F75577FA-82DF-45E4-9FA7-383A033A19D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{F75577FA-82DF-45E4-9FA7-383A033A19D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="72">
   <si>
     <t>Nama Lengkap</t>
   </si>
@@ -235,6 +236,21 @@
   </si>
   <si>
     <t>X24</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>R Hitung</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>R Tabel</t>
+  </si>
+  <si>
+    <t>Validitas</t>
   </si>
 </sst>
 </file>
@@ -271,7 +287,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -294,11 +310,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -310,6 +337,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DCA153-3C5E-4B7A-AC84-139B08335085}">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="M23" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:AB31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3307,4 +3337,2813 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51F3A5B-0358-41E2-AAC7-3B24AE17AD64}">
+  <dimension ref="A1:Z34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H26" workbookViewId="0">
+      <selection activeCell="Z34" sqref="Z34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2">
+        <v>3</v>
+      </c>
+      <c r="M2" s="2">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2">
+        <v>4</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>4</v>
+      </c>
+      <c r="R2" s="2">
+        <v>4</v>
+      </c>
+      <c r="S2" s="2">
+        <v>4</v>
+      </c>
+      <c r="T2" s="2">
+        <v>4</v>
+      </c>
+      <c r="U2" s="2">
+        <v>4</v>
+      </c>
+      <c r="V2" s="2">
+        <v>4</v>
+      </c>
+      <c r="W2" s="2">
+        <v>4</v>
+      </c>
+      <c r="X2" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z2">
+        <f>SUM(B2:Y2)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4</v>
+      </c>
+      <c r="L3" s="2">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2">
+        <v>5</v>
+      </c>
+      <c r="N3" s="2">
+        <v>3</v>
+      </c>
+      <c r="O3" s="2">
+        <v>5</v>
+      </c>
+      <c r="P3" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2">
+        <v>5</v>
+      </c>
+      <c r="S3" s="2">
+        <v>4</v>
+      </c>
+      <c r="T3" s="2">
+        <v>5</v>
+      </c>
+      <c r="U3" s="2">
+        <v>4</v>
+      </c>
+      <c r="V3" s="2">
+        <v>2</v>
+      </c>
+      <c r="W3" s="2">
+        <v>5</v>
+      </c>
+      <c r="X3" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z31" si="0">SUM(B3:Y3)</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2</v>
+      </c>
+      <c r="P4" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>4</v>
+      </c>
+      <c r="R4" s="2">
+        <v>2</v>
+      </c>
+      <c r="S4" s="2">
+        <v>2</v>
+      </c>
+      <c r="T4" s="2">
+        <v>2</v>
+      </c>
+      <c r="U4" s="2">
+        <v>3</v>
+      </c>
+      <c r="V4" s="2">
+        <v>4</v>
+      </c>
+      <c r="W4" s="2">
+        <v>3</v>
+      </c>
+      <c r="X4" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2">
+        <v>4</v>
+      </c>
+      <c r="L5" s="2">
+        <v>4</v>
+      </c>
+      <c r="M5" s="2">
+        <v>3</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2</v>
+      </c>
+      <c r="O5" s="2">
+        <v>3</v>
+      </c>
+      <c r="P5" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>2</v>
+      </c>
+      <c r="R5" s="2">
+        <v>2</v>
+      </c>
+      <c r="S5" s="2">
+        <v>4</v>
+      </c>
+      <c r="T5" s="2">
+        <v>3</v>
+      </c>
+      <c r="U5" s="2">
+        <v>1</v>
+      </c>
+      <c r="V5" s="2">
+        <v>3</v>
+      </c>
+      <c r="W5" s="2">
+        <v>2</v>
+      </c>
+      <c r="X5" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2">
+        <v>3</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2</v>
+      </c>
+      <c r="P6" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>4</v>
+      </c>
+      <c r="R6" s="2">
+        <v>3</v>
+      </c>
+      <c r="S6" s="2">
+        <v>4</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1</v>
+      </c>
+      <c r="U6" s="2">
+        <v>2</v>
+      </c>
+      <c r="V6" s="2">
+        <v>4</v>
+      </c>
+      <c r="W6" s="2">
+        <v>4</v>
+      </c>
+      <c r="X6" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2</v>
+      </c>
+      <c r="M7" s="2">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2">
+        <v>5</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2">
+        <v>4</v>
+      </c>
+      <c r="S7" s="2">
+        <v>4</v>
+      </c>
+      <c r="T7" s="2">
+        <v>5</v>
+      </c>
+      <c r="U7" s="2">
+        <v>5</v>
+      </c>
+      <c r="V7" s="2">
+        <v>5</v>
+      </c>
+      <c r="W7" s="2">
+        <v>4</v>
+      </c>
+      <c r="X7" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3</v>
+      </c>
+      <c r="M8" s="2">
+        <v>3</v>
+      </c>
+      <c r="N8" s="2">
+        <v>3</v>
+      </c>
+      <c r="O8" s="2">
+        <v>2</v>
+      </c>
+      <c r="P8" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2">
+        <v>4</v>
+      </c>
+      <c r="S8" s="2">
+        <v>3</v>
+      </c>
+      <c r="T8" s="2">
+        <v>3</v>
+      </c>
+      <c r="U8" s="2">
+        <v>4</v>
+      </c>
+      <c r="V8" s="2">
+        <v>4</v>
+      </c>
+      <c r="W8" s="2">
+        <v>3</v>
+      </c>
+      <c r="X8" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>3</v>
+      </c>
+      <c r="L9" s="2">
+        <v>4</v>
+      </c>
+      <c r="M9" s="2">
+        <v>4</v>
+      </c>
+      <c r="N9" s="2">
+        <v>5</v>
+      </c>
+      <c r="O9" s="2">
+        <v>4</v>
+      </c>
+      <c r="P9" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2">
+        <v>3</v>
+      </c>
+      <c r="S9" s="2">
+        <v>3</v>
+      </c>
+      <c r="T9" s="2">
+        <v>1</v>
+      </c>
+      <c r="U9" s="2">
+        <v>4</v>
+      </c>
+      <c r="V9" s="2">
+        <v>5</v>
+      </c>
+      <c r="W9" s="2">
+        <v>4</v>
+      </c>
+      <c r="X9" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>2</v>
+      </c>
+      <c r="M10" s="2">
+        <v>2</v>
+      </c>
+      <c r="N10" s="2">
+        <v>3</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2">
+        <v>4</v>
+      </c>
+      <c r="S10" s="2">
+        <v>4</v>
+      </c>
+      <c r="T10" s="2">
+        <v>3</v>
+      </c>
+      <c r="U10" s="2">
+        <v>3</v>
+      </c>
+      <c r="V10" s="2">
+        <v>5</v>
+      </c>
+      <c r="W10" s="2">
+        <v>5</v>
+      </c>
+      <c r="X10" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3</v>
+      </c>
+      <c r="M11" s="2">
+        <v>4</v>
+      </c>
+      <c r="N11" s="2">
+        <v>3</v>
+      </c>
+      <c r="O11" s="2">
+        <v>3</v>
+      </c>
+      <c r="P11" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2">
+        <v>3</v>
+      </c>
+      <c r="S11" s="2">
+        <v>3</v>
+      </c>
+      <c r="T11" s="2">
+        <v>2</v>
+      </c>
+      <c r="U11" s="2">
+        <v>3</v>
+      </c>
+      <c r="V11" s="2">
+        <v>2</v>
+      </c>
+      <c r="W11" s="2">
+        <v>2</v>
+      </c>
+      <c r="X11" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4</v>
+      </c>
+      <c r="I12" s="2">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2">
+        <v>3</v>
+      </c>
+      <c r="K12" s="2">
+        <v>3</v>
+      </c>
+      <c r="L12" s="2">
+        <v>3</v>
+      </c>
+      <c r="M12" s="2">
+        <v>3</v>
+      </c>
+      <c r="N12" s="2">
+        <v>4</v>
+      </c>
+      <c r="O12" s="2">
+        <v>3</v>
+      </c>
+      <c r="P12" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>3</v>
+      </c>
+      <c r="R12" s="2">
+        <v>3</v>
+      </c>
+      <c r="S12" s="2">
+        <v>3</v>
+      </c>
+      <c r="T12" s="2">
+        <v>3</v>
+      </c>
+      <c r="U12" s="2">
+        <v>3</v>
+      </c>
+      <c r="V12" s="2">
+        <v>4</v>
+      </c>
+      <c r="W12" s="2">
+        <v>3</v>
+      </c>
+      <c r="X12" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+      <c r="I13" s="2">
+        <v>3</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2</v>
+      </c>
+      <c r="L13" s="2">
+        <v>3</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
+        <v>3</v>
+      </c>
+      <c r="O13" s="2">
+        <v>2</v>
+      </c>
+      <c r="P13" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2">
+        <v>2</v>
+      </c>
+      <c r="S13" s="2">
+        <v>1</v>
+      </c>
+      <c r="T13" s="2">
+        <v>1</v>
+      </c>
+      <c r="U13" s="2">
+        <v>1</v>
+      </c>
+      <c r="V13" s="2">
+        <v>2</v>
+      </c>
+      <c r="W13" s="2">
+        <v>3</v>
+      </c>
+      <c r="X13" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2">
+        <v>4</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2</v>
+      </c>
+      <c r="L14" s="2">
+        <v>3</v>
+      </c>
+      <c r="M14" s="2">
+        <v>3</v>
+      </c>
+      <c r="N14" s="2">
+        <v>4</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>4</v>
+      </c>
+      <c r="R14" s="2">
+        <v>1</v>
+      </c>
+      <c r="S14" s="2">
+        <v>2</v>
+      </c>
+      <c r="T14" s="2">
+        <v>2</v>
+      </c>
+      <c r="U14" s="2">
+        <v>4</v>
+      </c>
+      <c r="V14" s="2">
+        <v>4</v>
+      </c>
+      <c r="W14" s="2">
+        <v>4</v>
+      </c>
+      <c r="X14" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2">
+        <v>4</v>
+      </c>
+      <c r="H15" s="2">
+        <v>4</v>
+      </c>
+      <c r="I15" s="2">
+        <v>3</v>
+      </c>
+      <c r="J15" s="2">
+        <v>3</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2</v>
+      </c>
+      <c r="L15" s="2">
+        <v>3</v>
+      </c>
+      <c r="M15" s="2">
+        <v>3</v>
+      </c>
+      <c r="N15" s="2">
+        <v>4</v>
+      </c>
+      <c r="O15" s="2">
+        <v>5</v>
+      </c>
+      <c r="P15" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>4</v>
+      </c>
+      <c r="R15" s="2">
+        <v>3</v>
+      </c>
+      <c r="S15" s="2">
+        <v>3</v>
+      </c>
+      <c r="T15" s="2">
+        <v>4</v>
+      </c>
+      <c r="U15" s="2">
+        <v>3</v>
+      </c>
+      <c r="V15" s="2">
+        <v>5</v>
+      </c>
+      <c r="W15" s="2">
+        <v>4</v>
+      </c>
+      <c r="X15" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2">
+        <v>5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>4</v>
+      </c>
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2">
+        <v>3</v>
+      </c>
+      <c r="K16" s="2">
+        <v>4</v>
+      </c>
+      <c r="L16" s="2">
+        <v>4</v>
+      </c>
+      <c r="M16" s="2">
+        <v>4</v>
+      </c>
+      <c r="N16" s="2">
+        <v>4</v>
+      </c>
+      <c r="O16" s="2">
+        <v>4</v>
+      </c>
+      <c r="P16" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>4</v>
+      </c>
+      <c r="R16" s="2">
+        <v>4</v>
+      </c>
+      <c r="S16" s="2">
+        <v>4</v>
+      </c>
+      <c r="T16" s="2">
+        <v>4</v>
+      </c>
+      <c r="U16" s="2">
+        <v>5</v>
+      </c>
+      <c r="V16" s="2">
+        <v>4</v>
+      </c>
+      <c r="W16" s="2">
+        <v>5</v>
+      </c>
+      <c r="X16" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2">
+        <v>4</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2">
+        <v>3</v>
+      </c>
+      <c r="K17" s="2">
+        <v>4</v>
+      </c>
+      <c r="L17" s="2">
+        <v>4</v>
+      </c>
+      <c r="M17" s="2">
+        <v>4</v>
+      </c>
+      <c r="N17" s="2">
+        <v>4</v>
+      </c>
+      <c r="O17" s="2">
+        <v>4</v>
+      </c>
+      <c r="P17" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>4</v>
+      </c>
+      <c r="R17" s="2">
+        <v>5</v>
+      </c>
+      <c r="S17" s="2">
+        <v>4</v>
+      </c>
+      <c r="T17" s="2">
+        <v>5</v>
+      </c>
+      <c r="U17" s="2">
+        <v>5</v>
+      </c>
+      <c r="V17" s="2">
+        <v>5</v>
+      </c>
+      <c r="W17" s="2">
+        <v>2</v>
+      </c>
+      <c r="X17" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4</v>
+      </c>
+      <c r="G18" s="2">
+        <v>4</v>
+      </c>
+      <c r="H18" s="2">
+        <v>3</v>
+      </c>
+      <c r="I18" s="2">
+        <v>3</v>
+      </c>
+      <c r="J18" s="2">
+        <v>4</v>
+      </c>
+      <c r="K18" s="2">
+        <v>4</v>
+      </c>
+      <c r="L18" s="2">
+        <v>5</v>
+      </c>
+      <c r="M18" s="2">
+        <v>4</v>
+      </c>
+      <c r="N18" s="2">
+        <v>5</v>
+      </c>
+      <c r="O18" s="2">
+        <v>4</v>
+      </c>
+      <c r="P18" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>3</v>
+      </c>
+      <c r="R18" s="2">
+        <v>2</v>
+      </c>
+      <c r="S18" s="2">
+        <v>4</v>
+      </c>
+      <c r="T18" s="2">
+        <v>3</v>
+      </c>
+      <c r="U18" s="2">
+        <v>3</v>
+      </c>
+      <c r="V18" s="2">
+        <v>3</v>
+      </c>
+      <c r="W18" s="2">
+        <v>4</v>
+      </c>
+      <c r="X18" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2">
+        <v>3</v>
+      </c>
+      <c r="H19" s="2">
+        <v>4</v>
+      </c>
+      <c r="I19" s="2">
+        <v>4</v>
+      </c>
+      <c r="J19" s="2">
+        <v>3</v>
+      </c>
+      <c r="K19" s="2">
+        <v>3</v>
+      </c>
+      <c r="L19" s="2">
+        <v>3</v>
+      </c>
+      <c r="M19" s="2">
+        <v>4</v>
+      </c>
+      <c r="N19" s="2">
+        <v>4</v>
+      </c>
+      <c r="O19" s="2">
+        <v>4</v>
+      </c>
+      <c r="P19" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>3</v>
+      </c>
+      <c r="R19" s="2">
+        <v>3</v>
+      </c>
+      <c r="S19" s="2">
+        <v>3</v>
+      </c>
+      <c r="T19" s="2">
+        <v>3</v>
+      </c>
+      <c r="U19" s="2">
+        <v>3</v>
+      </c>
+      <c r="V19" s="2">
+        <v>4</v>
+      </c>
+      <c r="W19" s="2">
+        <v>3</v>
+      </c>
+      <c r="X19" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>5</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2">
+        <v>5</v>
+      </c>
+      <c r="J20" s="2">
+        <v>5</v>
+      </c>
+      <c r="K20" s="2">
+        <v>5</v>
+      </c>
+      <c r="L20" s="2">
+        <v>5</v>
+      </c>
+      <c r="M20" s="2">
+        <v>5</v>
+      </c>
+      <c r="N20" s="2">
+        <v>5</v>
+      </c>
+      <c r="O20" s="2">
+        <v>4</v>
+      </c>
+      <c r="P20" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>5</v>
+      </c>
+      <c r="R20" s="2">
+        <v>5</v>
+      </c>
+      <c r="S20" s="2">
+        <v>5</v>
+      </c>
+      <c r="T20" s="2">
+        <v>5</v>
+      </c>
+      <c r="U20" s="2">
+        <v>5</v>
+      </c>
+      <c r="V20" s="2">
+        <v>5</v>
+      </c>
+      <c r="W20" s="2">
+        <v>5</v>
+      </c>
+      <c r="X20" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2">
+        <v>5</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2">
+        <v>5</v>
+      </c>
+      <c r="J21" s="2">
+        <v>3</v>
+      </c>
+      <c r="K21" s="2">
+        <v>3</v>
+      </c>
+      <c r="L21" s="2">
+        <v>3</v>
+      </c>
+      <c r="M21" s="2">
+        <v>2</v>
+      </c>
+      <c r="N21" s="2">
+        <v>4</v>
+      </c>
+      <c r="O21" s="2">
+        <v>3</v>
+      </c>
+      <c r="P21" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>4</v>
+      </c>
+      <c r="R21" s="2">
+        <v>4</v>
+      </c>
+      <c r="S21" s="2">
+        <v>4</v>
+      </c>
+      <c r="T21" s="2">
+        <v>5</v>
+      </c>
+      <c r="U21" s="2">
+        <v>4</v>
+      </c>
+      <c r="V21" s="2">
+        <v>4</v>
+      </c>
+      <c r="W21" s="2">
+        <v>5</v>
+      </c>
+      <c r="X21" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4</v>
+      </c>
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
+      <c r="H22" s="2">
+        <v>4</v>
+      </c>
+      <c r="I22" s="2">
+        <v>4</v>
+      </c>
+      <c r="J22" s="2">
+        <v>4</v>
+      </c>
+      <c r="K22" s="2">
+        <v>4</v>
+      </c>
+      <c r="L22" s="2">
+        <v>4</v>
+      </c>
+      <c r="M22" s="2">
+        <v>5</v>
+      </c>
+      <c r="N22" s="2">
+        <v>3</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1</v>
+      </c>
+      <c r="P22" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>4</v>
+      </c>
+      <c r="R22" s="2">
+        <v>4</v>
+      </c>
+      <c r="S22" s="2">
+        <v>4</v>
+      </c>
+      <c r="T22" s="2">
+        <v>4</v>
+      </c>
+      <c r="U22" s="2">
+        <v>3</v>
+      </c>
+      <c r="V22" s="2">
+        <v>4</v>
+      </c>
+      <c r="W22" s="2">
+        <v>4</v>
+      </c>
+      <c r="X22" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4</v>
+      </c>
+      <c r="G23" s="2">
+        <v>3</v>
+      </c>
+      <c r="H23" s="2">
+        <v>4</v>
+      </c>
+      <c r="I23" s="2">
+        <v>4</v>
+      </c>
+      <c r="J23" s="2">
+        <v>4</v>
+      </c>
+      <c r="K23" s="2">
+        <v>4</v>
+      </c>
+      <c r="L23" s="2">
+        <v>4</v>
+      </c>
+      <c r="M23" s="2">
+        <v>4</v>
+      </c>
+      <c r="N23" s="2">
+        <v>4</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1</v>
+      </c>
+      <c r="P23" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>3</v>
+      </c>
+      <c r="R23" s="2">
+        <v>4</v>
+      </c>
+      <c r="S23" s="2">
+        <v>3</v>
+      </c>
+      <c r="T23" s="2">
+        <v>3</v>
+      </c>
+      <c r="U23" s="2">
+        <v>3</v>
+      </c>
+      <c r="V23" s="2">
+        <v>4</v>
+      </c>
+      <c r="W23" s="2">
+        <v>5</v>
+      </c>
+      <c r="X23" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2">
+        <v>4</v>
+      </c>
+      <c r="G24" s="2">
+        <v>5</v>
+      </c>
+      <c r="H24" s="2">
+        <v>4</v>
+      </c>
+      <c r="I24" s="2">
+        <v>4</v>
+      </c>
+      <c r="J24" s="2">
+        <v>4</v>
+      </c>
+      <c r="K24" s="2">
+        <v>4</v>
+      </c>
+      <c r="L24" s="2">
+        <v>4</v>
+      </c>
+      <c r="M24" s="2">
+        <v>4</v>
+      </c>
+      <c r="N24" s="2">
+        <v>4</v>
+      </c>
+      <c r="O24" s="2">
+        <v>3</v>
+      </c>
+      <c r="P24" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>4</v>
+      </c>
+      <c r="R24" s="2">
+        <v>3</v>
+      </c>
+      <c r="S24" s="2">
+        <v>3</v>
+      </c>
+      <c r="T24" s="2">
+        <v>4</v>
+      </c>
+      <c r="U24" s="2">
+        <v>3</v>
+      </c>
+      <c r="V24" s="2">
+        <v>4</v>
+      </c>
+      <c r="W24" s="2">
+        <v>5</v>
+      </c>
+      <c r="X24" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2">
+        <v>4</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3</v>
+      </c>
+      <c r="G25" s="2">
+        <v>4</v>
+      </c>
+      <c r="H25" s="2">
+        <v>4</v>
+      </c>
+      <c r="I25" s="2">
+        <v>4</v>
+      </c>
+      <c r="J25" s="2">
+        <v>3</v>
+      </c>
+      <c r="K25" s="2">
+        <v>3</v>
+      </c>
+      <c r="L25" s="2">
+        <v>3</v>
+      </c>
+      <c r="M25" s="2">
+        <v>4</v>
+      </c>
+      <c r="N25" s="2">
+        <v>3</v>
+      </c>
+      <c r="O25" s="2">
+        <v>2</v>
+      </c>
+      <c r="P25" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>3</v>
+      </c>
+      <c r="R25" s="2">
+        <v>2</v>
+      </c>
+      <c r="S25" s="2">
+        <v>2</v>
+      </c>
+      <c r="T25" s="2">
+        <v>2</v>
+      </c>
+      <c r="U25" s="2">
+        <v>3</v>
+      </c>
+      <c r="V25" s="2">
+        <v>3</v>
+      </c>
+      <c r="W25" s="2">
+        <v>3</v>
+      </c>
+      <c r="X25" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2">
+        <v>4</v>
+      </c>
+      <c r="G26" s="2">
+        <v>5</v>
+      </c>
+      <c r="H26" s="2">
+        <v>4</v>
+      </c>
+      <c r="I26" s="2">
+        <v>5</v>
+      </c>
+      <c r="J26" s="2">
+        <v>4</v>
+      </c>
+      <c r="K26" s="2">
+        <v>4</v>
+      </c>
+      <c r="L26" s="2">
+        <v>4</v>
+      </c>
+      <c r="M26" s="2">
+        <v>4</v>
+      </c>
+      <c r="N26" s="2">
+        <v>5</v>
+      </c>
+      <c r="O26" s="2">
+        <v>5</v>
+      </c>
+      <c r="P26" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>5</v>
+      </c>
+      <c r="R26" s="2">
+        <v>5</v>
+      </c>
+      <c r="S26" s="2">
+        <v>5</v>
+      </c>
+      <c r="T26" s="2">
+        <v>4</v>
+      </c>
+      <c r="U26" s="2">
+        <v>5</v>
+      </c>
+      <c r="V26" s="2">
+        <v>5</v>
+      </c>
+      <c r="W26" s="2">
+        <v>5</v>
+      </c>
+      <c r="X26" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2">
+        <v>4</v>
+      </c>
+      <c r="F27" s="2">
+        <v>4</v>
+      </c>
+      <c r="G27" s="2">
+        <v>5</v>
+      </c>
+      <c r="H27" s="2">
+        <v>5</v>
+      </c>
+      <c r="I27" s="2">
+        <v>5</v>
+      </c>
+      <c r="J27" s="2">
+        <v>5</v>
+      </c>
+      <c r="K27" s="2">
+        <v>5</v>
+      </c>
+      <c r="L27" s="2">
+        <v>5</v>
+      </c>
+      <c r="M27" s="2">
+        <v>4</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1</v>
+      </c>
+      <c r="O27" s="2">
+        <v>2</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>1</v>
+      </c>
+      <c r="R27" s="2">
+        <v>2</v>
+      </c>
+      <c r="S27" s="2">
+        <v>2</v>
+      </c>
+      <c r="T27" s="2">
+        <v>1</v>
+      </c>
+      <c r="U27" s="2">
+        <v>2</v>
+      </c>
+      <c r="V27" s="2">
+        <v>1</v>
+      </c>
+      <c r="W27" s="2">
+        <v>1</v>
+      </c>
+      <c r="X27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>4</v>
+      </c>
+      <c r="G28" s="2">
+        <v>4</v>
+      </c>
+      <c r="H28" s="2">
+        <v>4</v>
+      </c>
+      <c r="I28" s="2">
+        <v>4</v>
+      </c>
+      <c r="J28" s="2">
+        <v>4</v>
+      </c>
+      <c r="K28" s="2">
+        <v>4</v>
+      </c>
+      <c r="L28" s="2">
+        <v>3</v>
+      </c>
+      <c r="M28" s="2">
+        <v>4</v>
+      </c>
+      <c r="N28" s="2">
+        <v>3</v>
+      </c>
+      <c r="O28" s="2">
+        <v>4</v>
+      </c>
+      <c r="P28" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>4</v>
+      </c>
+      <c r="R28" s="2">
+        <v>3</v>
+      </c>
+      <c r="S28" s="2">
+        <v>2</v>
+      </c>
+      <c r="T28" s="2">
+        <v>4</v>
+      </c>
+      <c r="U28" s="2">
+        <v>4</v>
+      </c>
+      <c r="V28" s="2">
+        <v>4</v>
+      </c>
+      <c r="W28" s="2">
+        <v>2</v>
+      </c>
+      <c r="X28" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2">
+        <v>5</v>
+      </c>
+      <c r="E29" s="2">
+        <v>4</v>
+      </c>
+      <c r="F29" s="2">
+        <v>3</v>
+      </c>
+      <c r="G29" s="2">
+        <v>4</v>
+      </c>
+      <c r="H29" s="2">
+        <v>3</v>
+      </c>
+      <c r="I29" s="2">
+        <v>3</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2</v>
+      </c>
+      <c r="K29" s="2">
+        <v>2</v>
+      </c>
+      <c r="L29" s="2">
+        <v>2</v>
+      </c>
+      <c r="M29" s="2">
+        <v>4</v>
+      </c>
+      <c r="N29" s="2">
+        <v>3</v>
+      </c>
+      <c r="O29" s="2">
+        <v>3</v>
+      </c>
+      <c r="P29" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>4</v>
+      </c>
+      <c r="R29" s="2">
+        <v>3</v>
+      </c>
+      <c r="S29" s="2">
+        <v>4</v>
+      </c>
+      <c r="T29" s="2">
+        <v>3</v>
+      </c>
+      <c r="U29" s="2">
+        <v>2</v>
+      </c>
+      <c r="V29" s="2">
+        <v>4</v>
+      </c>
+      <c r="W29" s="2">
+        <v>3</v>
+      </c>
+      <c r="X29" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2">
+        <v>4</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2">
+        <v>4</v>
+      </c>
+      <c r="G30" s="2">
+        <v>4</v>
+      </c>
+      <c r="H30" s="2">
+        <v>5</v>
+      </c>
+      <c r="I30" s="2">
+        <v>2</v>
+      </c>
+      <c r="J30" s="2">
+        <v>2</v>
+      </c>
+      <c r="K30" s="2">
+        <v>2</v>
+      </c>
+      <c r="L30" s="2">
+        <v>2</v>
+      </c>
+      <c r="M30" s="2">
+        <v>3</v>
+      </c>
+      <c r="N30" s="2">
+        <v>5</v>
+      </c>
+      <c r="O30" s="2">
+        <v>2</v>
+      </c>
+      <c r="P30" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>3</v>
+      </c>
+      <c r="R30" s="2">
+        <v>2</v>
+      </c>
+      <c r="S30" s="2">
+        <v>4</v>
+      </c>
+      <c r="T30" s="2">
+        <v>4</v>
+      </c>
+      <c r="U30" s="2">
+        <v>4</v>
+      </c>
+      <c r="V30" s="2">
+        <v>5</v>
+      </c>
+      <c r="W30" s="2">
+        <v>4</v>
+      </c>
+      <c r="X30" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4</v>
+      </c>
+      <c r="F31" s="2">
+        <v>4</v>
+      </c>
+      <c r="G31" s="2">
+        <v>5</v>
+      </c>
+      <c r="H31" s="2">
+        <v>4</v>
+      </c>
+      <c r="I31" s="2">
+        <v>5</v>
+      </c>
+      <c r="J31" s="2">
+        <v>4</v>
+      </c>
+      <c r="K31" s="2">
+        <v>3</v>
+      </c>
+      <c r="L31" s="2">
+        <v>4</v>
+      </c>
+      <c r="M31" s="2">
+        <v>4</v>
+      </c>
+      <c r="N31" s="2">
+        <v>1</v>
+      </c>
+      <c r="O31" s="2">
+        <v>1</v>
+      </c>
+      <c r="P31" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>1</v>
+      </c>
+      <c r="R31" s="2">
+        <v>1</v>
+      </c>
+      <c r="S31" s="2">
+        <v>3</v>
+      </c>
+      <c r="T31" s="2">
+        <v>2</v>
+      </c>
+      <c r="U31" s="2">
+        <v>2</v>
+      </c>
+      <c r="V31" s="2">
+        <v>1</v>
+      </c>
+      <c r="W31" s="2">
+        <v>2</v>
+      </c>
+      <c r="X31" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32">
+        <f>CORREL(B2:B31,Z2:Z31)</f>
+        <v>0.50321520447742318</v>
+      </c>
+      <c r="C32">
+        <f>CORREL(C2:C31,Z2:Z31)</f>
+        <v>0.36564270609012134</v>
+      </c>
+      <c r="D32">
+        <f>CORREL(D2:D31,Z2:Z31)</f>
+        <v>0.30780960912942257</v>
+      </c>
+      <c r="E32">
+        <f>CORREL(E2:E31,Z2:Z31)</f>
+        <v>0.35996809340506641</v>
+      </c>
+      <c r="F32">
+        <f>CORREL(F2:F31,Z2:Z31)</f>
+        <v>0.46018430571718411</v>
+      </c>
+      <c r="G32">
+        <f>CORREL(G2:G31,Z2:Z31)</f>
+        <v>0.42880401589342165</v>
+      </c>
+      <c r="H32">
+        <f>CORREL(H2:H31,Z2:Z31)</f>
+        <v>0.3591998259563785</v>
+      </c>
+      <c r="I32">
+        <f>CORREL(I2:I31,Z2:Z31)</f>
+        <v>0.31320244899802135</v>
+      </c>
+      <c r="J32">
+        <f>CORREL(J2:J31,Z2:Z31)</f>
+        <v>0.42703137001433961</v>
+      </c>
+      <c r="K32">
+        <f>CORREL(K2:K31,Z2:Z31)</f>
+        <v>0.56164661216222023</v>
+      </c>
+      <c r="L32">
+        <f>CORREL(L2:L31,Z2:Z31)</f>
+        <v>0.44086484554436189</v>
+      </c>
+      <c r="M32">
+        <f>CORREL(M2:M31,Z2:Z31)</f>
+        <v>0.49049245741800335</v>
+      </c>
+      <c r="N32">
+        <f>CORREL(N2:N31,Z2:Z31)</f>
+        <v>0.66799821696082007</v>
+      </c>
+      <c r="O32">
+        <f>CORREL(O2:O31,Z2:Z31)</f>
+        <v>0.50393344952531716</v>
+      </c>
+      <c r="P32">
+        <f>CORREL(P2:P31,Z2:Z31)</f>
+        <v>0.54589225603206037</v>
+      </c>
+      <c r="Q32">
+        <f>CORREL(Q2:Q31,Z2:Z31)</f>
+        <v>0.67902364562913242</v>
+      </c>
+      <c r="R32">
+        <f>CORREL(R2:R31,Z2:Z31)</f>
+        <v>0.6733544735285133</v>
+      </c>
+      <c r="S32">
+        <f>CORREL(S2:S31,Z2:Z31)</f>
+        <v>0.69102006205036082</v>
+      </c>
+      <c r="T32">
+        <f>CORREL(T2:T31,Z2:Z31)</f>
+        <v>0.67244868112208811</v>
+      </c>
+      <c r="U32">
+        <f>CORREL(U2:U31,Z2:Z31)</f>
+        <v>0.68738829810767432</v>
+      </c>
+      <c r="V32">
+        <f>CORREL(V2:V31,Z2:Z31)</f>
+        <v>0.61175673525014129</v>
+      </c>
+      <c r="W32">
+        <f>CORREL(W2:W31,Z2:Z31)</f>
+        <v>0.61035653151003355</v>
+      </c>
+      <c r="X32">
+        <f>CORREL(X2:X31,Z2:Z31)</f>
+        <v>0.58077615787770775</v>
+      </c>
+      <c r="Y32">
+        <f>CORREL(Y2:Y31,Z2:Z31)</f>
+        <v>0.54216300647240556</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="C33">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="D33">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="E33">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="F33">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="G33">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="H33">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="I33">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="J33">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="K33">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="L33">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="M33">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="N33">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="P33">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="Q33">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="R33">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="S33">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="T33">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="U33">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="V33">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="W33">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="X33">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="Y33">
+        <v>0.36099999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34">
+        <f>IF(B33&lt;B32,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:P34" si="1">IF(C33&lt;C32,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" ref="Q34" si="2">IF(Q33&lt;Q32,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <f t="shared" ref="R34" si="3">IF(R33&lt;R32,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <f t="shared" ref="S34" si="4">IF(S33&lt;S32,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <f t="shared" ref="T34" si="5">IF(T33&lt;T32,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <f t="shared" ref="U34" si="6">IF(U33&lt;U32,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <f t="shared" ref="V34" si="7">IF(V33&lt;V32,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <f t="shared" ref="W34" si="8">IF(W33&lt;W32,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <f t="shared" ref="X34" si="9">IF(X33&lt;X32,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" ref="Y34" si="10">IF(Y33&lt;Y32,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <f>SUM(B34:Y34)</f>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data Survey.xlsx
+++ b/Data Survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Semester 3\Analisa Statistika Terapan\Project-Survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66FF6AE-3E6C-4F70-BC3B-30C528808D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76430CFF-6DB0-4624-BDE8-EB39220965B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{F75577FA-82DF-45E4-9FA7-383A033A19D3}"/>
   </bookViews>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DCA153-3C5E-4B7A-AC84-139B08335085}">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView topLeftCell="M23" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:AB31"/>
+    <sheetView topLeftCell="B22" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3341,10 +3341,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51F3A5B-0358-41E2-AAC7-3B24AE17AD64}">
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H26" workbookViewId="0">
-      <selection activeCell="Z34" sqref="Z34"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3587,7 +3587,7 @@
         <v>5</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z31" si="0">SUM(B3:Y3)</f>
+        <f t="shared" ref="Z3:Z42" si="0">SUM(B3:Y3)</f>
         <v>86</v>
       </c>
     </row>
@@ -5859,287 +5859,1178 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2">
+        <v>4</v>
+      </c>
+      <c r="F32" s="2">
+        <v>4</v>
+      </c>
+      <c r="G32" s="2">
+        <v>5</v>
+      </c>
+      <c r="H32" s="2">
+        <v>5</v>
+      </c>
+      <c r="I32" s="2">
+        <v>5</v>
+      </c>
+      <c r="J32" s="2">
+        <v>3</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2">
+        <v>3</v>
+      </c>
+      <c r="O32" s="2">
+        <v>2</v>
+      </c>
+      <c r="P32" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>1</v>
+      </c>
+      <c r="R32" s="2">
+        <v>2</v>
+      </c>
+      <c r="S32" s="2">
+        <v>2</v>
+      </c>
+      <c r="T32" s="2">
+        <v>2</v>
+      </c>
+      <c r="U32" s="2">
+        <v>3</v>
+      </c>
+      <c r="V32" s="2">
+        <v>3</v>
+      </c>
+      <c r="W32" s="2">
+        <v>1</v>
+      </c>
+      <c r="X32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2">
+        <v>4</v>
+      </c>
+      <c r="F33" s="2">
+        <v>3</v>
+      </c>
+      <c r="G33" s="2">
+        <v>4</v>
+      </c>
+      <c r="H33" s="2">
+        <v>4</v>
+      </c>
+      <c r="I33" s="2">
+        <v>4</v>
+      </c>
+      <c r="J33" s="2">
+        <v>3</v>
+      </c>
+      <c r="K33" s="2">
+        <v>2</v>
+      </c>
+      <c r="L33" s="2">
+        <v>2</v>
+      </c>
+      <c r="M33" s="2">
+        <v>3</v>
+      </c>
+      <c r="N33" s="2">
+        <v>4</v>
+      </c>
+      <c r="O33" s="2">
+        <v>3</v>
+      </c>
+      <c r="P33" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>3</v>
+      </c>
+      <c r="R33" s="2">
+        <v>2</v>
+      </c>
+      <c r="S33" s="2">
+        <v>3</v>
+      </c>
+      <c r="T33" s="2">
+        <v>1</v>
+      </c>
+      <c r="U33" s="2">
+        <v>2</v>
+      </c>
+      <c r="V33" s="2">
+        <v>2</v>
+      </c>
+      <c r="W33" s="2">
+        <v>2</v>
+      </c>
+      <c r="X33" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2">
+        <v>4</v>
+      </c>
+      <c r="G34" s="2">
+        <v>5</v>
+      </c>
+      <c r="H34" s="2">
+        <v>4</v>
+      </c>
+      <c r="I34" s="2">
+        <v>4</v>
+      </c>
+      <c r="J34" s="2">
+        <v>4</v>
+      </c>
+      <c r="K34" s="2">
+        <v>2</v>
+      </c>
+      <c r="L34" s="2">
+        <v>2</v>
+      </c>
+      <c r="M34" s="2">
+        <v>2</v>
+      </c>
+      <c r="N34" s="2">
+        <v>3</v>
+      </c>
+      <c r="O34" s="2">
+        <v>1</v>
+      </c>
+      <c r="P34" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>3</v>
+      </c>
+      <c r="R34" s="2">
+        <v>3</v>
+      </c>
+      <c r="S34" s="2">
+        <v>3</v>
+      </c>
+      <c r="T34" s="2">
+        <v>4</v>
+      </c>
+      <c r="U34" s="2">
+        <v>4</v>
+      </c>
+      <c r="V34" s="2">
+        <v>4</v>
+      </c>
+      <c r="W34" s="2">
+        <v>3</v>
+      </c>
+      <c r="X34" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2">
+        <v>4</v>
+      </c>
+      <c r="E35" s="2">
+        <v>4</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2</v>
+      </c>
+      <c r="G35" s="2">
+        <v>3</v>
+      </c>
+      <c r="H35" s="2">
+        <v>3</v>
+      </c>
+      <c r="I35" s="2">
+        <v>4</v>
+      </c>
+      <c r="J35" s="2">
+        <v>4</v>
+      </c>
+      <c r="K35" s="2">
+        <v>2</v>
+      </c>
+      <c r="L35" s="2">
+        <v>4</v>
+      </c>
+      <c r="M35" s="2">
+        <v>3</v>
+      </c>
+      <c r="N35" s="2">
+        <v>4</v>
+      </c>
+      <c r="O35" s="2">
+        <v>3</v>
+      </c>
+      <c r="P35" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>3</v>
+      </c>
+      <c r="R35" s="2">
+        <v>4</v>
+      </c>
+      <c r="S35" s="2">
+        <v>4</v>
+      </c>
+      <c r="T35" s="2">
+        <v>3</v>
+      </c>
+      <c r="U35" s="2">
+        <v>4</v>
+      </c>
+      <c r="V35" s="2">
+        <v>5</v>
+      </c>
+      <c r="W35" s="2">
+        <v>5</v>
+      </c>
+      <c r="X35" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2">
+        <v>4</v>
+      </c>
+      <c r="E36" s="2">
+        <v>3</v>
+      </c>
+      <c r="F36" s="2">
+        <v>3</v>
+      </c>
+      <c r="G36" s="2">
+        <v>3</v>
+      </c>
+      <c r="H36" s="2">
+        <v>3</v>
+      </c>
+      <c r="I36" s="2">
+        <v>4</v>
+      </c>
+      <c r="J36" s="2">
+        <v>3</v>
+      </c>
+      <c r="K36" s="2">
+        <v>3</v>
+      </c>
+      <c r="L36" s="2">
+        <v>3</v>
+      </c>
+      <c r="M36" s="2">
+        <v>3</v>
+      </c>
+      <c r="N36" s="2">
+        <v>4</v>
+      </c>
+      <c r="O36" s="2">
+        <v>2</v>
+      </c>
+      <c r="P36" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>4</v>
+      </c>
+      <c r="R36" s="2">
+        <v>3</v>
+      </c>
+      <c r="S36" s="2">
+        <v>3</v>
+      </c>
+      <c r="T36" s="2">
+        <v>3</v>
+      </c>
+      <c r="U36" s="2">
+        <v>4</v>
+      </c>
+      <c r="V36" s="2">
+        <v>3</v>
+      </c>
+      <c r="W36" s="2">
+        <v>5</v>
+      </c>
+      <c r="X36" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>5</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2">
+        <v>5</v>
+      </c>
+      <c r="E37" s="2">
+        <v>4</v>
+      </c>
+      <c r="F37" s="2">
+        <v>4</v>
+      </c>
+      <c r="G37" s="2">
+        <v>5</v>
+      </c>
+      <c r="H37" s="2">
+        <v>4</v>
+      </c>
+      <c r="I37" s="2">
+        <v>4</v>
+      </c>
+      <c r="J37" s="2">
+        <v>4</v>
+      </c>
+      <c r="K37" s="2">
+        <v>3</v>
+      </c>
+      <c r="L37" s="2">
+        <v>4</v>
+      </c>
+      <c r="M37" s="2">
+        <v>4</v>
+      </c>
+      <c r="N37" s="2">
+        <v>4</v>
+      </c>
+      <c r="O37" s="2">
+        <v>3</v>
+      </c>
+      <c r="P37" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>4</v>
+      </c>
+      <c r="R37" s="2">
+        <v>3</v>
+      </c>
+      <c r="S37" s="2">
+        <v>3</v>
+      </c>
+      <c r="T37" s="2">
+        <v>3</v>
+      </c>
+      <c r="U37" s="2">
+        <v>4</v>
+      </c>
+      <c r="V37" s="2">
+        <v>4</v>
+      </c>
+      <c r="W37" s="2">
+        <v>3</v>
+      </c>
+      <c r="X37" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2">
+        <v>5</v>
+      </c>
+      <c r="D38" s="2">
+        <v>5</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2">
+        <v>4</v>
+      </c>
+      <c r="G38" s="2">
+        <v>5</v>
+      </c>
+      <c r="H38" s="2">
+        <v>4</v>
+      </c>
+      <c r="I38" s="2">
+        <v>4</v>
+      </c>
+      <c r="J38" s="2">
+        <v>5</v>
+      </c>
+      <c r="K38" s="2">
+        <v>5</v>
+      </c>
+      <c r="L38" s="2">
+        <v>5</v>
+      </c>
+      <c r="M38" s="2">
+        <v>4</v>
+      </c>
+      <c r="N38" s="2">
+        <v>5</v>
+      </c>
+      <c r="O38" s="2">
+        <v>4</v>
+      </c>
+      <c r="P38" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>4</v>
+      </c>
+      <c r="R38" s="2">
+        <v>5</v>
+      </c>
+      <c r="S38" s="2">
+        <v>4</v>
+      </c>
+      <c r="T38" s="2">
+        <v>4</v>
+      </c>
+      <c r="U38" s="2">
+        <v>5</v>
+      </c>
+      <c r="V38" s="2">
+        <v>4</v>
+      </c>
+      <c r="W38" s="2">
+        <v>5</v>
+      </c>
+      <c r="X38" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2">
+        <v>4</v>
+      </c>
+      <c r="D39" s="2">
+        <v>5</v>
+      </c>
+      <c r="E39" s="2">
+        <v>3</v>
+      </c>
+      <c r="F39" s="2">
+        <v>4</v>
+      </c>
+      <c r="G39" s="2">
+        <v>5</v>
+      </c>
+      <c r="H39" s="2">
+        <v>4</v>
+      </c>
+      <c r="I39" s="2">
+        <v>4</v>
+      </c>
+      <c r="J39" s="2">
+        <v>4</v>
+      </c>
+      <c r="K39" s="2">
+        <v>3</v>
+      </c>
+      <c r="L39" s="2">
+        <v>3</v>
+      </c>
+      <c r="M39" s="2">
+        <v>3</v>
+      </c>
+      <c r="N39" s="2">
+        <v>5</v>
+      </c>
+      <c r="O39" s="2">
+        <v>5</v>
+      </c>
+      <c r="P39" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>4</v>
+      </c>
+      <c r="R39" s="2">
+        <v>5</v>
+      </c>
+      <c r="S39" s="2">
+        <v>5</v>
+      </c>
+      <c r="T39" s="2">
+        <v>3</v>
+      </c>
+      <c r="U39" s="2">
+        <v>3</v>
+      </c>
+      <c r="V39" s="2">
+        <v>4</v>
+      </c>
+      <c r="W39" s="2">
+        <v>5</v>
+      </c>
+      <c r="X39" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2">
+        <v>5</v>
+      </c>
+      <c r="D40" s="2">
+        <v>5</v>
+      </c>
+      <c r="E40" s="2">
+        <v>5</v>
+      </c>
+      <c r="F40" s="2">
+        <v>5</v>
+      </c>
+      <c r="G40" s="2">
+        <v>5</v>
+      </c>
+      <c r="H40" s="2">
+        <v>5</v>
+      </c>
+      <c r="I40" s="2">
+        <v>5</v>
+      </c>
+      <c r="J40" s="2">
+        <v>5</v>
+      </c>
+      <c r="K40" s="2">
+        <v>5</v>
+      </c>
+      <c r="L40" s="2">
+        <v>5</v>
+      </c>
+      <c r="M40" s="2">
+        <v>5</v>
+      </c>
+      <c r="N40" s="2">
+        <v>5</v>
+      </c>
+      <c r="O40" s="2">
+        <v>5</v>
+      </c>
+      <c r="P40" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>5</v>
+      </c>
+      <c r="R40" s="2">
+        <v>5</v>
+      </c>
+      <c r="S40" s="2">
+        <v>5</v>
+      </c>
+      <c r="T40" s="2">
+        <v>5</v>
+      </c>
+      <c r="U40" s="2">
+        <v>5</v>
+      </c>
+      <c r="V40" s="2">
+        <v>5</v>
+      </c>
+      <c r="W40" s="2">
+        <v>5</v>
+      </c>
+      <c r="X40" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2">
+        <v>3</v>
+      </c>
+      <c r="D41" s="2">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2">
+        <v>5</v>
+      </c>
+      <c r="F41" s="2">
+        <v>4</v>
+      </c>
+      <c r="G41" s="2">
+        <v>5</v>
+      </c>
+      <c r="H41" s="2">
+        <v>4</v>
+      </c>
+      <c r="I41" s="2">
+        <v>5</v>
+      </c>
+      <c r="J41" s="2">
+        <v>4</v>
+      </c>
+      <c r="K41" s="2">
+        <v>4</v>
+      </c>
+      <c r="L41" s="2">
+        <v>3</v>
+      </c>
+      <c r="M41" s="2">
+        <v>3</v>
+      </c>
+      <c r="N41" s="2">
+        <v>4</v>
+      </c>
+      <c r="O41" s="2">
+        <v>4</v>
+      </c>
+      <c r="P41" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>5</v>
+      </c>
+      <c r="R41" s="2">
+        <v>3</v>
+      </c>
+      <c r="S41" s="2">
+        <v>3</v>
+      </c>
+      <c r="T41" s="2">
+        <v>4</v>
+      </c>
+      <c r="U41" s="2">
+        <v>4</v>
+      </c>
+      <c r="V41" s="2">
+        <v>4</v>
+      </c>
+      <c r="W41" s="2">
+        <v>4</v>
+      </c>
+      <c r="X41" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>5</v>
+      </c>
+      <c r="C42" s="2">
+        <v>5</v>
+      </c>
+      <c r="D42" s="2">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2">
+        <v>5</v>
+      </c>
+      <c r="F42" s="2">
+        <v>4</v>
+      </c>
+      <c r="G42" s="2">
+        <v>5</v>
+      </c>
+      <c r="H42" s="2">
+        <v>5</v>
+      </c>
+      <c r="I42" s="2">
+        <v>5</v>
+      </c>
+      <c r="J42" s="2">
+        <v>4</v>
+      </c>
+      <c r="K42" s="2">
+        <v>4</v>
+      </c>
+      <c r="L42" s="2">
+        <v>5</v>
+      </c>
+      <c r="M42" s="2">
+        <v>5</v>
+      </c>
+      <c r="N42" s="2">
+        <v>5</v>
+      </c>
+      <c r="O42" s="2">
+        <v>4</v>
+      </c>
+      <c r="P42" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>5</v>
+      </c>
+      <c r="R42" s="2">
+        <v>3</v>
+      </c>
+      <c r="S42" s="2">
+        <v>3</v>
+      </c>
+      <c r="T42" s="2">
+        <v>5</v>
+      </c>
+      <c r="U42" s="2">
+        <v>5</v>
+      </c>
+      <c r="V42" s="2">
+        <v>5</v>
+      </c>
+      <c r="W42" s="2">
+        <v>5</v>
+      </c>
+      <c r="X42" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>68</v>
       </c>
-      <c r="B32">
-        <f>CORREL(B2:B31,Z2:Z31)</f>
-        <v>0.50321520447742318</v>
-      </c>
-      <c r="C32">
-        <f>CORREL(C2:C31,Z2:Z31)</f>
-        <v>0.36564270609012134</v>
-      </c>
-      <c r="D32">
-        <f>CORREL(D2:D31,Z2:Z31)</f>
-        <v>0.30780960912942257</v>
-      </c>
-      <c r="E32">
-        <f>CORREL(E2:E31,Z2:Z31)</f>
-        <v>0.35996809340506641</v>
-      </c>
-      <c r="F32">
-        <f>CORREL(F2:F31,Z2:Z31)</f>
-        <v>0.46018430571718411</v>
-      </c>
-      <c r="G32">
-        <f>CORREL(G2:G31,Z2:Z31)</f>
-        <v>0.42880401589342165</v>
-      </c>
-      <c r="H32">
-        <f>CORREL(H2:H31,Z2:Z31)</f>
-        <v>0.3591998259563785</v>
-      </c>
-      <c r="I32">
-        <f>CORREL(I2:I31,Z2:Z31)</f>
-        <v>0.31320244899802135</v>
-      </c>
-      <c r="J32">
-        <f>CORREL(J2:J31,Z2:Z31)</f>
-        <v>0.42703137001433961</v>
-      </c>
-      <c r="K32">
-        <f>CORREL(K2:K31,Z2:Z31)</f>
-        <v>0.56164661216222023</v>
-      </c>
-      <c r="L32">
-        <f>CORREL(L2:L31,Z2:Z31)</f>
-        <v>0.44086484554436189</v>
-      </c>
-      <c r="M32">
-        <f>CORREL(M2:M31,Z2:Z31)</f>
-        <v>0.49049245741800335</v>
-      </c>
-      <c r="N32">
-        <f>CORREL(N2:N31,Z2:Z31)</f>
-        <v>0.66799821696082007</v>
-      </c>
-      <c r="O32">
-        <f>CORREL(O2:O31,Z2:Z31)</f>
-        <v>0.50393344952531716</v>
-      </c>
-      <c r="P32">
-        <f>CORREL(P2:P31,Z2:Z31)</f>
-        <v>0.54589225603206037</v>
-      </c>
-      <c r="Q32">
-        <f>CORREL(Q2:Q31,Z2:Z31)</f>
-        <v>0.67902364562913242</v>
-      </c>
-      <c r="R32">
-        <f>CORREL(R2:R31,Z2:Z31)</f>
-        <v>0.6733544735285133</v>
-      </c>
-      <c r="S32">
-        <f>CORREL(S2:S31,Z2:Z31)</f>
-        <v>0.69102006205036082</v>
-      </c>
-      <c r="T32">
-        <f>CORREL(T2:T31,Z2:Z31)</f>
-        <v>0.67244868112208811</v>
-      </c>
-      <c r="U32">
-        <f>CORREL(U2:U31,Z2:Z31)</f>
-        <v>0.68738829810767432</v>
-      </c>
-      <c r="V32">
-        <f>CORREL(V2:V31,Z2:Z31)</f>
-        <v>0.61175673525014129</v>
-      </c>
-      <c r="W32">
-        <f>CORREL(W2:W31,Z2:Z31)</f>
-        <v>0.61035653151003355</v>
-      </c>
-      <c r="X32">
-        <f>CORREL(X2:X31,Z2:Z31)</f>
-        <v>0.58077615787770775</v>
-      </c>
-      <c r="Y32">
-        <f>CORREL(Y2:Y31,Z2:Z31)</f>
-        <v>0.54216300647240556</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B43">
+        <f>CORREL(B2:B42,Z2:Z42)</f>
+        <v>0.62367116142410117</v>
+      </c>
+      <c r="C43">
+        <f>CORREL(C2:C42,Z2:Z42)</f>
+        <v>0.48976328651962114</v>
+      </c>
+      <c r="D43">
+        <f>CORREL(D2:D42,Z2:Z42)</f>
+        <v>0.44492355809481204</v>
+      </c>
+      <c r="E43">
+        <f>CORREL(E2:E42,Z2:Z42)</f>
+        <v>0.45534473820140464</v>
+      </c>
+      <c r="F43">
+        <f>CORREL(F2:F42,Z2:Z42)</f>
+        <v>0.47930577444910294</v>
+      </c>
+      <c r="G43">
+        <f>CORREL(G2:G42,Z2:Z42)</f>
+        <v>0.42916521918247669</v>
+      </c>
+      <c r="H43">
+        <f>CORREL(H2:H42,Z2:Z42)</f>
+        <v>0.35035301665104351</v>
+      </c>
+      <c r="I43">
+        <f>CORREL(I2:I42,Z2:Z42)</f>
+        <v>0.34002926094981256</v>
+      </c>
+      <c r="J43">
+        <f>CORREL(J2:J42,Z2:Z42)</f>
+        <v>0.54336219653744133</v>
+      </c>
+      <c r="K43">
+        <f>CORREL(K2:K42,Z2:Z42)</f>
+        <v>0.66848951284390967</v>
+      </c>
+      <c r="L43">
+        <f>CORREL(L2:L42,Z2:Z42)</f>
+        <v>0.61384483268205259</v>
+      </c>
+      <c r="M43">
+        <f>CORREL(M2:M42,Z2:Z42)</f>
+        <v>0.58617893073148541</v>
+      </c>
+      <c r="N43">
+        <f>CORREL(N2:N42,Z2:Z42)</f>
+        <v>0.70052400559537586</v>
+      </c>
+      <c r="O43">
+        <f>CORREL(O2:O42,Z2:Z42)</f>
+        <v>0.59359489400192489</v>
+      </c>
+      <c r="P43">
+        <f>CORREL(P2:P42,Z2:Z42)</f>
+        <v>0.6266555586557212</v>
+      </c>
+      <c r="Q43">
+        <f>CORREL(Q2:Q42,Z2:Z42)</f>
+        <v>0.73129006605856828</v>
+      </c>
+      <c r="R43">
+        <f>CORREL(R13:R42,Z13:Z42)</f>
+        <v>0.79312517034873165</v>
+      </c>
+      <c r="S43">
+        <f>CORREL(S13:S42,Z13:Z42)</f>
+        <v>0.76338615275956712</v>
+      </c>
+      <c r="T43">
+        <f>CORREL(T13:T42,Z13:Z42)</f>
+        <v>0.82633101186072755</v>
+      </c>
+      <c r="U43">
+        <f>CORREL(U13:U42,Z13:Z42)</f>
+        <v>0.7847220258889589</v>
+      </c>
+      <c r="V43">
+        <f>CORREL(V2:V42,Z2:Z42)</f>
+        <v>0.63749227321205382</v>
+      </c>
+      <c r="W43">
+        <f>CORREL(W2:W42,Z2:Z42)</f>
+        <v>0.67535996646466279</v>
+      </c>
+      <c r="X43">
+        <f>CORREL(X2:X42,Z2:Z42)</f>
+        <v>0.68716208526314704</v>
+      </c>
+      <c r="Y43">
+        <f>CORREL(Y2:Y42,Z2:Z42)</f>
+        <v>0.53076194389048914</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>70</v>
       </c>
-      <c r="B33">
+      <c r="B44">
         <v>0.36099999999999999</v>
       </c>
-      <c r="C33">
+      <c r="C44">
         <v>0.36099999999999999</v>
       </c>
-      <c r="D33">
+      <c r="D44">
         <v>0.36099999999999999</v>
       </c>
-      <c r="E33">
+      <c r="E44">
         <v>0.36099999999999999</v>
       </c>
-      <c r="F33">
+      <c r="F44">
         <v>0.36099999999999999</v>
       </c>
-      <c r="G33">
+      <c r="G44">
         <v>0.36099999999999999</v>
       </c>
-      <c r="H33">
+      <c r="H44">
         <v>0.36099999999999999</v>
       </c>
-      <c r="I33">
+      <c r="I44">
         <v>0.36099999999999999</v>
       </c>
-      <c r="J33">
+      <c r="J44">
         <v>0.36099999999999999</v>
       </c>
-      <c r="K33">
+      <c r="K44">
         <v>0.36099999999999999</v>
       </c>
-      <c r="L33">
+      <c r="L44">
         <v>0.36099999999999999</v>
       </c>
-      <c r="M33">
+      <c r="M44">
         <v>0.36099999999999999</v>
       </c>
-      <c r="N33">
+      <c r="N44">
         <v>0.36099999999999999</v>
       </c>
-      <c r="O33">
+      <c r="O44">
         <v>0.36099999999999999</v>
       </c>
-      <c r="P33">
+      <c r="P44">
         <v>0.36099999999999999</v>
       </c>
-      <c r="Q33">
+      <c r="Q44">
         <v>0.36099999999999999</v>
       </c>
-      <c r="R33">
+      <c r="R44">
         <v>0.36099999999999999</v>
       </c>
-      <c r="S33">
+      <c r="S44">
         <v>0.36099999999999999</v>
       </c>
-      <c r="T33">
+      <c r="T44">
         <v>0.36099999999999999</v>
       </c>
-      <c r="U33">
+      <c r="U44">
         <v>0.36099999999999999</v>
       </c>
-      <c r="V33">
+      <c r="V44">
         <v>0.36099999999999999</v>
       </c>
-      <c r="W33">
+      <c r="W44">
         <v>0.36099999999999999</v>
       </c>
-      <c r="X33">
+      <c r="X44">
         <v>0.36099999999999999</v>
       </c>
-      <c r="Y33">
+      <c r="Y44">
         <v>0.36099999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>71</v>
       </c>
-      <c r="B34">
-        <f>IF(B33&lt;B32,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <f t="shared" ref="C34:P34" si="1">IF(C33&lt;C32,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D34">
+      <c r="B45">
+        <f>IF(B44&lt;B43,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:P45" si="1">IF(C44&lt;C43,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E34">
+      <c r="I45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34">
+      <c r="J45">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G34">
+      <c r="K45">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H34">
+      <c r="L45">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="M45">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="N45">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K34">
+      <c r="O45">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L34">
+      <c r="P45">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M34">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" ref="Q34" si="2">IF(Q33&lt;Q32,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="R34">
-        <f t="shared" ref="R34" si="3">IF(R33&lt;R32,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S34">
-        <f t="shared" ref="S34" si="4">IF(S33&lt;S32,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="T34">
-        <f t="shared" ref="T34" si="5">IF(T33&lt;T32,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U34">
-        <f t="shared" ref="U34" si="6">IF(U33&lt;U32,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V34">
-        <f t="shared" ref="V34" si="7">IF(V33&lt;V32,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="W34">
-        <f t="shared" ref="W34" si="8">IF(W33&lt;W32,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="X34">
-        <f t="shared" ref="X34" si="9">IF(X33&lt;X32,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="Y34">
-        <f t="shared" ref="Y34" si="10">IF(Y33&lt;Y32,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="Z34">
-        <f>SUM(B34:Y34)</f>
-        <v>20</v>
+      <c r="Q45">
+        <f t="shared" ref="Q45" si="2">IF(Q44&lt;Q43,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <f t="shared" ref="R45" si="3">IF(R44&lt;R43,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <f t="shared" ref="S45" si="4">IF(S44&lt;S43,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T45">
+        <f t="shared" ref="T45" si="5">IF(T44&lt;T43,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <f t="shared" ref="U45" si="6">IF(U44&lt;U43,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <f t="shared" ref="V45" si="7">IF(V44&lt;V43,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="W45">
+        <f t="shared" ref="W45" si="8">IF(W44&lt;W43,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <f t="shared" ref="X45" si="9">IF(X44&lt;X43,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" ref="Y45" si="10">IF(Y44&lt;Y43,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z45">
+        <f>SUM(B45:Y45)</f>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Data Survey.xlsx
+++ b/Data Survey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Semester 3\Analisa Statistika Terapan\Project-Survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76430CFF-6DB0-4624-BDE8-EB39220965B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95ACE7A-3661-4105-84B0-2B3D0EEE0698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{F75577FA-82DF-45E4-9FA7-383A033A19D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F75577FA-82DF-45E4-9FA7-383A033A19D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="84">
   <si>
     <t>Nama Lengkap</t>
   </si>
@@ -251,6 +251,42 @@
   </si>
   <si>
     <t>Validitas</t>
+  </si>
+  <si>
+    <t>Calysta Moza Salsabilla</t>
+  </si>
+  <si>
+    <t>Erina Nur Miftaqul Jannah</t>
+  </si>
+  <si>
+    <t>Muhammad Fauzil Kazhim Zen</t>
+  </si>
+  <si>
+    <t>wahyu ikbal maulana</t>
+  </si>
+  <si>
+    <t>Argya Dwi Ferdinand Putra</t>
+  </si>
+  <si>
+    <t>D3 IT B</t>
+  </si>
+  <si>
+    <t>Sabrina Humaira</t>
+  </si>
+  <si>
+    <t>Azalia Fitriana Bagardini</t>
+  </si>
+  <si>
+    <t>Mochammad Ariel Sulton</t>
+  </si>
+  <si>
+    <t>Adriyans jusa</t>
+  </si>
+  <si>
+    <t>BISTIANA SYAFINA RIDHO</t>
+  </si>
+  <si>
+    <t>Kriza Fauzi Nafi'Ubadah</t>
   </si>
 </sst>
 </file>
@@ -337,7 +373,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -654,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DCA153-3C5E-4B7A-AC84-139B08335085}">
-  <dimension ref="A1:AB31"/>
+  <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:AB42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3333,6 +3369,952 @@
         <v>1</v>
       </c>
     </row>
+    <row r="32" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>3</v>
+      </c>
+      <c r="G32" s="2">
+        <v>4</v>
+      </c>
+      <c r="H32" s="2">
+        <v>4</v>
+      </c>
+      <c r="I32" s="2">
+        <v>4</v>
+      </c>
+      <c r="J32" s="2">
+        <v>5</v>
+      </c>
+      <c r="K32" s="2">
+        <v>5</v>
+      </c>
+      <c r="L32" s="2">
+        <v>5</v>
+      </c>
+      <c r="M32" s="2">
+        <v>3</v>
+      </c>
+      <c r="N32" s="2">
+        <v>1</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1</v>
+      </c>
+      <c r="P32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>3</v>
+      </c>
+      <c r="R32" s="2">
+        <v>2</v>
+      </c>
+      <c r="S32" s="2">
+        <v>3</v>
+      </c>
+      <c r="T32" s="2">
+        <v>1</v>
+      </c>
+      <c r="U32" s="2">
+        <v>2</v>
+      </c>
+      <c r="V32" s="2">
+        <v>2</v>
+      </c>
+      <c r="W32" s="2">
+        <v>2</v>
+      </c>
+      <c r="X32" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3</v>
+      </c>
+      <c r="F33" s="2">
+        <v>3</v>
+      </c>
+      <c r="G33" s="2">
+        <v>3</v>
+      </c>
+      <c r="H33" s="2">
+        <v>4</v>
+      </c>
+      <c r="I33" s="2">
+        <v>3</v>
+      </c>
+      <c r="J33" s="2">
+        <v>4</v>
+      </c>
+      <c r="K33" s="2">
+        <v>4</v>
+      </c>
+      <c r="L33" s="2">
+        <v>4</v>
+      </c>
+      <c r="M33" s="2">
+        <v>3</v>
+      </c>
+      <c r="N33" s="2">
+        <v>2</v>
+      </c>
+      <c r="O33" s="2">
+        <v>2</v>
+      </c>
+      <c r="P33" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>4</v>
+      </c>
+      <c r="R33" s="2">
+        <v>3</v>
+      </c>
+      <c r="S33" s="2">
+        <v>3</v>
+      </c>
+      <c r="T33" s="2">
+        <v>3</v>
+      </c>
+      <c r="U33" s="2">
+        <v>2</v>
+      </c>
+      <c r="V33" s="2">
+        <v>3</v>
+      </c>
+      <c r="W33" s="2">
+        <v>1</v>
+      </c>
+      <c r="X33" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="2">
+        <v>5</v>
+      </c>
+      <c r="F34" s="2">
+        <v>5</v>
+      </c>
+      <c r="G34" s="2">
+        <v>4</v>
+      </c>
+      <c r="H34" s="2">
+        <v>4</v>
+      </c>
+      <c r="I34" s="2">
+        <v>4</v>
+      </c>
+      <c r="J34" s="2">
+        <v>5</v>
+      </c>
+      <c r="K34" s="2">
+        <v>4</v>
+      </c>
+      <c r="L34" s="2">
+        <v>4</v>
+      </c>
+      <c r="M34" s="2">
+        <v>4</v>
+      </c>
+      <c r="N34" s="2">
+        <v>2</v>
+      </c>
+      <c r="O34" s="2">
+        <v>2</v>
+      </c>
+      <c r="P34" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>3</v>
+      </c>
+      <c r="R34" s="2">
+        <v>1</v>
+      </c>
+      <c r="S34" s="2">
+        <v>3</v>
+      </c>
+      <c r="T34" s="2">
+        <v>3</v>
+      </c>
+      <c r="U34" s="2">
+        <v>3</v>
+      </c>
+      <c r="V34" s="2">
+        <v>3</v>
+      </c>
+      <c r="W34" s="2">
+        <v>4</v>
+      </c>
+      <c r="X34" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="2">
+        <v>5</v>
+      </c>
+      <c r="F35" s="2">
+        <v>5</v>
+      </c>
+      <c r="G35" s="2">
+        <v>4</v>
+      </c>
+      <c r="H35" s="2">
+        <v>4</v>
+      </c>
+      <c r="I35" s="2">
+        <v>2</v>
+      </c>
+      <c r="J35" s="2">
+        <v>3</v>
+      </c>
+      <c r="K35" s="2">
+        <v>3</v>
+      </c>
+      <c r="L35" s="2">
+        <v>4</v>
+      </c>
+      <c r="M35" s="2">
+        <v>4</v>
+      </c>
+      <c r="N35" s="2">
+        <v>2</v>
+      </c>
+      <c r="O35" s="2">
+        <v>4</v>
+      </c>
+      <c r="P35" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>4</v>
+      </c>
+      <c r="R35" s="2">
+        <v>3</v>
+      </c>
+      <c r="S35" s="2">
+        <v>4</v>
+      </c>
+      <c r="T35" s="2">
+        <v>3</v>
+      </c>
+      <c r="U35" s="2">
+        <v>4</v>
+      </c>
+      <c r="V35" s="2">
+        <v>4</v>
+      </c>
+      <c r="W35" s="2">
+        <v>3</v>
+      </c>
+      <c r="X35" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="2">
+        <v>3</v>
+      </c>
+      <c r="F36" s="2">
+        <v>3</v>
+      </c>
+      <c r="G36" s="2">
+        <v>4</v>
+      </c>
+      <c r="H36" s="2">
+        <v>3</v>
+      </c>
+      <c r="I36" s="2">
+        <v>3</v>
+      </c>
+      <c r="J36" s="2">
+        <v>3</v>
+      </c>
+      <c r="K36" s="2">
+        <v>3</v>
+      </c>
+      <c r="L36" s="2">
+        <v>4</v>
+      </c>
+      <c r="M36" s="2">
+        <v>3</v>
+      </c>
+      <c r="N36" s="2">
+        <v>3</v>
+      </c>
+      <c r="O36" s="2">
+        <v>3</v>
+      </c>
+      <c r="P36" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>4</v>
+      </c>
+      <c r="R36" s="2">
+        <v>2</v>
+      </c>
+      <c r="S36" s="2">
+        <v>4</v>
+      </c>
+      <c r="T36" s="2">
+        <v>4</v>
+      </c>
+      <c r="U36" s="2">
+        <v>3</v>
+      </c>
+      <c r="V36" s="2">
+        <v>3</v>
+      </c>
+      <c r="W36" s="2">
+        <v>3</v>
+      </c>
+      <c r="X36" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="2">
+        <v>5</v>
+      </c>
+      <c r="F37" s="2">
+        <v>4</v>
+      </c>
+      <c r="G37" s="2">
+        <v>5</v>
+      </c>
+      <c r="H37" s="2">
+        <v>4</v>
+      </c>
+      <c r="I37" s="2">
+        <v>4</v>
+      </c>
+      <c r="J37" s="2">
+        <v>5</v>
+      </c>
+      <c r="K37" s="2">
+        <v>4</v>
+      </c>
+      <c r="L37" s="2">
+        <v>4</v>
+      </c>
+      <c r="M37" s="2">
+        <v>4</v>
+      </c>
+      <c r="N37" s="2">
+        <v>3</v>
+      </c>
+      <c r="O37" s="2">
+        <v>4</v>
+      </c>
+      <c r="P37" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>4</v>
+      </c>
+      <c r="R37" s="2">
+        <v>3</v>
+      </c>
+      <c r="S37" s="2">
+        <v>4</v>
+      </c>
+      <c r="T37" s="2">
+        <v>4</v>
+      </c>
+      <c r="U37" s="2">
+        <v>3</v>
+      </c>
+      <c r="V37" s="2">
+        <v>3</v>
+      </c>
+      <c r="W37" s="2">
+        <v>3</v>
+      </c>
+      <c r="X37" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2">
+        <v>5</v>
+      </c>
+      <c r="G38" s="2">
+        <v>5</v>
+      </c>
+      <c r="H38" s="2">
+        <v>5</v>
+      </c>
+      <c r="I38" s="2">
+        <v>4</v>
+      </c>
+      <c r="J38" s="2">
+        <v>5</v>
+      </c>
+      <c r="K38" s="2">
+        <v>4</v>
+      </c>
+      <c r="L38" s="2">
+        <v>4</v>
+      </c>
+      <c r="M38" s="2">
+        <v>5</v>
+      </c>
+      <c r="N38" s="2">
+        <v>5</v>
+      </c>
+      <c r="O38" s="2">
+        <v>5</v>
+      </c>
+      <c r="P38" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>5</v>
+      </c>
+      <c r="R38" s="2">
+        <v>4</v>
+      </c>
+      <c r="S38" s="2">
+        <v>4</v>
+      </c>
+      <c r="T38" s="2">
+        <v>4</v>
+      </c>
+      <c r="U38" s="2">
+        <v>5</v>
+      </c>
+      <c r="V38" s="2">
+        <v>4</v>
+      </c>
+      <c r="W38" s="2">
+        <v>4</v>
+      </c>
+      <c r="X38" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="2">
+        <v>5</v>
+      </c>
+      <c r="F39" s="2">
+        <v>4</v>
+      </c>
+      <c r="G39" s="2">
+        <v>5</v>
+      </c>
+      <c r="H39" s="2">
+        <v>3</v>
+      </c>
+      <c r="I39" s="2">
+        <v>4</v>
+      </c>
+      <c r="J39" s="2">
+        <v>5</v>
+      </c>
+      <c r="K39" s="2">
+        <v>4</v>
+      </c>
+      <c r="L39" s="2">
+        <v>4</v>
+      </c>
+      <c r="M39" s="2">
+        <v>4</v>
+      </c>
+      <c r="N39" s="2">
+        <v>3</v>
+      </c>
+      <c r="O39" s="2">
+        <v>3</v>
+      </c>
+      <c r="P39" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>5</v>
+      </c>
+      <c r="R39" s="2">
+        <v>5</v>
+      </c>
+      <c r="S39" s="2">
+        <v>5</v>
+      </c>
+      <c r="T39" s="2">
+        <v>4</v>
+      </c>
+      <c r="U39" s="2">
+        <v>5</v>
+      </c>
+      <c r="V39" s="2">
+        <v>5</v>
+      </c>
+      <c r="W39" s="2">
+        <v>3</v>
+      </c>
+      <c r="X39" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="2">
+        <v>5</v>
+      </c>
+      <c r="F40" s="2">
+        <v>5</v>
+      </c>
+      <c r="G40" s="2">
+        <v>5</v>
+      </c>
+      <c r="H40" s="2">
+        <v>5</v>
+      </c>
+      <c r="I40" s="2">
+        <v>5</v>
+      </c>
+      <c r="J40" s="2">
+        <v>5</v>
+      </c>
+      <c r="K40" s="2">
+        <v>5</v>
+      </c>
+      <c r="L40" s="2">
+        <v>5</v>
+      </c>
+      <c r="M40" s="2">
+        <v>5</v>
+      </c>
+      <c r="N40" s="2">
+        <v>5</v>
+      </c>
+      <c r="O40" s="2">
+        <v>5</v>
+      </c>
+      <c r="P40" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>5</v>
+      </c>
+      <c r="R40" s="2">
+        <v>5</v>
+      </c>
+      <c r="S40" s="2">
+        <v>5</v>
+      </c>
+      <c r="T40" s="2">
+        <v>5</v>
+      </c>
+      <c r="U40" s="2">
+        <v>5</v>
+      </c>
+      <c r="V40" s="2">
+        <v>5</v>
+      </c>
+      <c r="W40" s="2">
+        <v>5</v>
+      </c>
+      <c r="X40" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="2">
+        <v>4</v>
+      </c>
+      <c r="F41" s="2">
+        <v>3</v>
+      </c>
+      <c r="G41" s="2">
+        <v>4</v>
+      </c>
+      <c r="H41" s="2">
+        <v>5</v>
+      </c>
+      <c r="I41" s="2">
+        <v>4</v>
+      </c>
+      <c r="J41" s="2">
+        <v>5</v>
+      </c>
+      <c r="K41" s="2">
+        <v>4</v>
+      </c>
+      <c r="L41" s="2">
+        <v>5</v>
+      </c>
+      <c r="M41" s="2">
+        <v>4</v>
+      </c>
+      <c r="N41" s="2">
+        <v>4</v>
+      </c>
+      <c r="O41" s="2">
+        <v>3</v>
+      </c>
+      <c r="P41" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>4</v>
+      </c>
+      <c r="R41" s="2">
+        <v>4</v>
+      </c>
+      <c r="S41" s="2">
+        <v>4</v>
+      </c>
+      <c r="T41" s="2">
+        <v>5</v>
+      </c>
+      <c r="U41" s="2">
+        <v>3</v>
+      </c>
+      <c r="V41" s="2">
+        <v>3</v>
+      </c>
+      <c r="W41" s="2">
+        <v>4</v>
+      </c>
+      <c r="X41" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2">
+        <v>5</v>
+      </c>
+      <c r="F42" s="2">
+        <v>5</v>
+      </c>
+      <c r="G42" s="2">
+        <v>5</v>
+      </c>
+      <c r="H42" s="2">
+        <v>5</v>
+      </c>
+      <c r="I42" s="2">
+        <v>4</v>
+      </c>
+      <c r="J42" s="2">
+        <v>5</v>
+      </c>
+      <c r="K42" s="2">
+        <v>5</v>
+      </c>
+      <c r="L42" s="2">
+        <v>5</v>
+      </c>
+      <c r="M42" s="2">
+        <v>4</v>
+      </c>
+      <c r="N42" s="2">
+        <v>4</v>
+      </c>
+      <c r="O42" s="2">
+        <v>5</v>
+      </c>
+      <c r="P42" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>5</v>
+      </c>
+      <c r="R42" s="2">
+        <v>4</v>
+      </c>
+      <c r="S42" s="2">
+        <v>5</v>
+      </c>
+      <c r="T42" s="2">
+        <v>5</v>
+      </c>
+      <c r="U42" s="2">
+        <v>3</v>
+      </c>
+      <c r="V42" s="2">
+        <v>3</v>
+      </c>
+      <c r="W42" s="2">
+        <v>5</v>
+      </c>
+      <c r="X42" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3343,7 +4325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51F3A5B-0358-41E2-AAC7-3B24AE17AD64}">
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>

--- a/Data Survey.xlsx
+++ b/Data Survey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Semester 3\Analisa Statistika Terapan\Project-Survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95ACE7A-3661-4105-84B0-2B3D0EEE0698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917F515F-8899-4CC4-AD42-A1570EA93246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F75577FA-82DF-45E4-9FA7-383A033A19D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{F75577FA-82DF-45E4-9FA7-383A033A19D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -692,7 +692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DCA153-3C5E-4B7A-AC84-139B08335085}">
   <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="A32" sqref="A32:AB42"/>
     </sheetView>
   </sheetViews>
@@ -4325,8 +4325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51F3A5B-0358-41E2-AAC7-3B24AE17AD64}">
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="H27" workbookViewId="0">
+      <selection activeCell="X46" sqref="X46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7838,76 +7838,76 @@
         <v>70</v>
       </c>
       <c r="B44">
-        <v>0.36099999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="C44">
-        <v>0.36099999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="D44">
-        <v>0.36099999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="E44">
-        <v>0.36099999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="F44">
-        <v>0.36099999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="G44">
-        <v>0.36099999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="H44">
-        <v>0.36099999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="I44">
-        <v>0.36099999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="J44">
-        <v>0.36099999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="K44">
-        <v>0.36099999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="L44">
-        <v>0.36099999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="M44">
-        <v>0.36099999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="N44">
-        <v>0.36099999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="O44">
-        <v>0.36099999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="P44">
-        <v>0.36099999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="Q44">
-        <v>0.36099999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="R44">
-        <v>0.36099999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="S44">
-        <v>0.36099999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="T44">
-        <v>0.36099999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="U44">
-        <v>0.36099999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="V44">
-        <v>0.36099999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="W44">
-        <v>0.36099999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="X44">
-        <v>0.36099999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="Y44">
-        <v>0.36099999999999999</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
@@ -7940,11 +7940,11 @@
       </c>
       <c r="H45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
         <f t="shared" si="1"/>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="Z45">
         <f>SUM(B45:Y45)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
